--- a/medicine/Mort/Monument_aux_morts_de_Sauveterre-la-Lémance/Monument_aux_morts_de_Sauveterre-la-Lémance.xlsx
+++ b/medicine/Mort/Monument_aux_morts_de_Sauveterre-la-Lémance/Monument_aux_morts_de_Sauveterre-la-Lémance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monument_aux_morts_de_Sauveterre-la-L%C3%A9mance</t>
+          <t>Monument_aux_morts_de_Sauveterre-la-Lémance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monument aux morts est situé place des Platanes, à Sauveterre-la-Lémance, département de Lot-et-Garonne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Monument_aux_morts_de_Sauveterre-la-L%C3%A9mance</t>
+          <t>Monument_aux_morts_de_Sauveterre-la-Lémance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour rendre hommage les 27 hommes de la commune morts pendant la Première Guerre mondiale, celle-ci décide en 1921 de faire construire un monument aux morts à l'architecte villeneuvois Gaston Rapin qui conçoit le socle. La sculpture est en fonte. Elle a été conçue par Édouard-Marcel Sandoz. Elle est sortie des fonderies et ateliers de construction du Val d'Osne. Les travaux ont été réalisés par E. Brousse, entrepreneur en maçonnerie. La grille de clôture a été fabriquée par l'atelier de mécanique et de construction Edmond Blanchard et fils de Sauveterre, et posée en 1925
-Ce monument aux morts est inscrit au titre des monuments historiques le 21 octobre 2014[1],[2],[3].
+Ce monument aux morts est inscrit au titre des monuments historiques le 21 octobre 2014.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Monument_aux_morts_de_Sauveterre-la-L%C3%A9mance</t>
+          <t>Monument_aux_morts_de_Sauveterre-la-Lémance</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaston Rapin est un habitué des représentations allégoriques. L’architecte a proposé pour ce monument une sculpture représentant la République française. La sculpture réalisée par Maurice Sandoz est appelée la « Victoire aux drapeaux ». La femme qui est en train de courir tient un drapeau à moitié enroulé dans sa main droite et une branche d'olivier dans la gauche. La sculpture est signée « Sandoz » à sa base.
 </t>
